--- a/formatos_hoja_de_calculo/COMPUTADORAS.xlsx
+++ b/formatos_hoja_de_calculo/COMPUTADORAS.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92C607-7BBB-4440-9B56-34CF43A1B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$593</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11792" uniqueCount="1917">
   <si>
     <t>Fecha</t>
   </si>
@@ -5773,52 +5779,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -5829,10 +5817,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -5869,7 +5854,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -5883,80 +5874,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="6" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="1" fillId="6" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="7" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="7" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5966,10 +5928,25 @@
     <dxf>
       <font>
         <sz val="10"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
         <color rgb="FF006100"/>
         <name val="Calibri"/>
       </font>
-      <numFmt numFmtId="164" formatCode="General"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
@@ -5977,26 +5954,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0"/>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0"/>
-      <border/>
     </dxf>
   </dxfs>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6286,45 +6254,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W2" sqref="W2:W592"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" hidden="true" customWidth="true" style="18"/>
-    <col min="2" max="2" width="19.140625" customWidth="true" style="18"/>
-    <col min="3" max="3" width="38" hidden="true" customWidth="true" style="18"/>
-    <col min="4" max="4" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="5" max="5" width="44.5703125" hidden="true" customWidth="true" style="18"/>
-    <col min="6" max="6" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="7" max="7" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="8" max="8" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="9" max="9" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="10" max="10" width="10.7109375" customWidth="true" style="18"/>
-    <col min="11" max="11" width="14.140625" hidden="true" customWidth="true" style="18"/>
-    <col min="12" max="12" width="9.140625" style="18"/>
-    <col min="13" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="9.140625" style="18"/>
-    <col min="15" max="15" width="9.140625" style="18"/>
-    <col min="16" max="16" width="0" hidden="true" customWidth="true" style="18"/>
+    <col min="1" max="1" width="11.28515625" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="0" style="18" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="18"/>
-    <col min="18" max="18" width="28.85546875" customWidth="true" style="18"/>
-    <col min="19" max="19" width="9.140625" style="18"/>
-    <col min="20" max="20" width="0" hidden="true" customWidth="true" style="18"/>
-    <col min="21" max="21" width="7.7109375" customWidth="true" style="18"/>
-    <col min="22" max="22" width="4.85546875" customWidth="true" style="18"/>
-    <col min="23" max="23" width="7.28515625" customWidth="true" style="18"/>
+    <col min="18" max="18" width="28.85546875" style="18" customWidth="1"/>
+    <col min="19" max="20" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="18" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="18" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customHeight="1" ht="45" s="5" customFormat="1">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44526</v>
       </c>
@@ -6464,7 +6423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44526</v>
       </c>
@@ -6533,7 +6492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44526</v>
       </c>
@@ -6602,7 +6561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44526</v>
       </c>
@@ -6667,7 +6626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="6" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44526</v>
       </c>
@@ -6732,7 +6691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="7" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44526</v>
       </c>
@@ -6797,7 +6756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44526</v>
       </c>
@@ -6866,7 +6825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="9" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>44526</v>
       </c>
@@ -6935,7 +6894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="10" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44526</v>
       </c>
@@ -7004,7 +6963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="11" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>44526</v>
       </c>
@@ -7071,7 +7030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>44526</v>
       </c>
@@ -7140,7 +7099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="13" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>44526</v>
       </c>
@@ -7209,7 +7168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>44526</v>
       </c>
@@ -7278,7 +7237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="15" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>44526</v>
       </c>
@@ -7347,7 +7306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="16" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>44526</v>
       </c>
@@ -7416,7 +7375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="17" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>44526</v>
       </c>
@@ -7485,7 +7444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="18" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>44526</v>
       </c>
@@ -7554,7 +7513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="19" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>44526</v>
       </c>
@@ -7619,7 +7578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="20" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>44526</v>
       </c>
@@ -7688,7 +7647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="21" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>44526</v>
       </c>
@@ -7753,7 +7712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="22" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>44526</v>
       </c>
@@ -7822,7 +7781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="23" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
@@ -7891,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="24" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>44526</v>
       </c>
@@ -7956,7 +7915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="25" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>44526</v>
       </c>
@@ -8025,7 +7984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="26" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>44526</v>
       </c>
@@ -8094,7 +8053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="27" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>44526</v>
       </c>
@@ -8163,7 +8122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="28" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>44526</v>
       </c>
@@ -8232,7 +8191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="29" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>44526</v>
       </c>
@@ -8301,7 +8260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="30" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>44526</v>
       </c>
@@ -8370,7 +8329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="31" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>44526</v>
       </c>
@@ -8439,7 +8398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="32" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>44526</v>
       </c>
@@ -8508,7 +8467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="33" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>44526</v>
       </c>
@@ -8577,7 +8536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="34" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>44526</v>
       </c>
@@ -8646,7 +8605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="35" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>44526</v>
       </c>
@@ -8715,7 +8674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="36" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>44526</v>
       </c>
@@ -8784,7 +8743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="37" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>44526</v>
       </c>
@@ -8853,7 +8812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="38" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>44526</v>
       </c>
@@ -8922,7 +8881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="39" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>44526</v>
       </c>
@@ -8987,7 +8946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="40" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>44526</v>
       </c>
@@ -9056,7 +9015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="41" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>44526</v>
       </c>
@@ -9125,7 +9084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="42" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>44526</v>
       </c>
@@ -9194,7 +9153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="43" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>44526</v>
       </c>
@@ -9263,7 +9222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="44" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>44526</v>
       </c>
@@ -9332,7 +9291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="45" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44526</v>
       </c>
@@ -9401,7 +9360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="46" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>44526</v>
       </c>
@@ -9470,7 +9429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="47" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>44526</v>
       </c>
@@ -9539,7 +9498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="48" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>44526</v>
       </c>
@@ -9608,7 +9567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="49" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>44526</v>
       </c>
@@ -9676,7 +9635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="50" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>44526</v>
       </c>
@@ -9745,7 +9704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="51" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>44526</v>
       </c>
@@ -9814,7 +9773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="52" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
@@ -9883,7 +9842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="53" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>44526</v>
       </c>
@@ -9952,7 +9911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="54" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>44526</v>
       </c>
@@ -10021,7 +9980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="55" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>44526</v>
       </c>
@@ -10090,7 +10049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="56" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>44526</v>
       </c>
@@ -10157,7 +10116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="57" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>44526</v>
       </c>
@@ -10226,7 +10185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="58" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>44526</v>
       </c>
@@ -10295,7 +10254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="59" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>44526</v>
       </c>
@@ -10364,7 +10323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="60" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>44526</v>
       </c>
@@ -10429,7 +10388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="61" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>44526</v>
       </c>
@@ -10498,7 +10457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="62" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>44526</v>
       </c>
@@ -10563,7 +10522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="63" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>44526</v>
       </c>
@@ -10632,7 +10591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="64" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44526</v>
       </c>
@@ -10697,7 +10656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="65" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44526</v>
       </c>
@@ -10766,7 +10725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="66" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44526</v>
       </c>
@@ -10831,7 +10790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="67" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44526</v>
       </c>
@@ -10896,7 +10855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="68" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44526</v>
       </c>
@@ -10965,7 +10924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="69" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44526</v>
       </c>
@@ -11034,7 +10993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="70" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44526</v>
       </c>
@@ -11099,7 +11058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="71" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44526</v>
       </c>
@@ -11168,7 +11127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="72" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44526</v>
       </c>
@@ -11237,7 +11196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="73" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44526</v>
       </c>
@@ -11306,7 +11265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="74" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44526</v>
       </c>
@@ -11375,7 +11334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="75" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>44526</v>
       </c>
@@ -11442,7 +11401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="76" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>44526</v>
       </c>
@@ -11511,7 +11470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="77" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>44526</v>
       </c>
@@ -11580,7 +11539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="78" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>44526</v>
       </c>
@@ -11649,7 +11608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="79" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>44526</v>
       </c>
@@ -11714,7 +11673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="80" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>44526</v>
       </c>
@@ -11781,7 +11740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="81" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>44526</v>
       </c>
@@ -11850,7 +11809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="82" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44526</v>
       </c>
@@ -11919,7 +11878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="83" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>44526</v>
       </c>
@@ -11988,7 +11947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="84" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>44526</v>
       </c>
@@ -12053,7 +12012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="85" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>44526</v>
       </c>
@@ -12120,7 +12079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="86" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>44526</v>
       </c>
@@ -12189,7 +12148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="87" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>44526</v>
       </c>
@@ -12258,7 +12217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="88" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>44526</v>
       </c>
@@ -12327,7 +12286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="89" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>44526</v>
       </c>
@@ -12396,7 +12355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="90" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>44526</v>
       </c>
@@ -12465,7 +12424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="91" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>44526</v>
       </c>
@@ -12534,7 +12493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="92" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>44526</v>
       </c>
@@ -12602,7 +12561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="93" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>44526</v>
       </c>
@@ -12670,7 +12629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="94" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>44526</v>
       </c>
@@ -12738,7 +12697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="95" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>44526</v>
       </c>
@@ -12806,7 +12765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="96" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>44526</v>
       </c>
@@ -12874,7 +12833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="97" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>44526</v>
       </c>
@@ -12942,7 +12901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="98" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>44526</v>
       </c>
@@ -13010,7 +12969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="99" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>44526</v>
       </c>
@@ -13078,7 +13037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="100" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>44526</v>
       </c>
@@ -13147,7 +13106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="101" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>44526</v>
       </c>
@@ -13215,7 +13174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="102" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>44526</v>
       </c>
@@ -13283,7 +13242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="103" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>44526</v>
       </c>
@@ -13351,7 +13310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="104" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>44526</v>
       </c>
@@ -13419,7 +13378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="105" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>44526</v>
       </c>
@@ -13487,7 +13446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="106" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>44526</v>
       </c>
@@ -13555,7 +13514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="107" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>44526</v>
       </c>
@@ -13623,7 +13582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="108" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>44526</v>
       </c>
@@ -13691,7 +13650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="109" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>44526</v>
       </c>
@@ -13760,7 +13719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="110" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>44526</v>
       </c>
@@ -13828,7 +13787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="111" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>44526</v>
       </c>
@@ -13896,7 +13855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="112" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>44526</v>
       </c>
@@ -13964,7 +13923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="113" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>44526</v>
       </c>
@@ -14032,7 +13991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="114" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>44526</v>
       </c>
@@ -14100,7 +14059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="115" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>44526</v>
       </c>
@@ -14168,7 +14127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="116" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>44526</v>
       </c>
@@ -14236,8 +14195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
-      <c r="J117" s="5"/>
+    <row r="117" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R117" s="21"/>
       <c r="U117" s="5" t="s">
         <v>458</v>
@@ -14249,7 +14207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="118" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>44526</v>
       </c>
@@ -14318,7 +14276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="119" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>44526</v>
       </c>
@@ -14386,7 +14344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="120" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>44526</v>
       </c>
@@ -14452,7 +14410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="121" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>44526</v>
       </c>
@@ -14520,7 +14478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="122" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>44526</v>
       </c>
@@ -14588,7 +14546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="123" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>44526</v>
       </c>
@@ -14656,7 +14614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="124" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>44526</v>
       </c>
@@ -14724,7 +14682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="125" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>44526</v>
       </c>
@@ -14792,7 +14750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="126" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>44526</v>
       </c>
@@ -14860,7 +14818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="127" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>44526</v>
       </c>
@@ -14929,7 +14887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="128" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>44526</v>
       </c>
@@ -14997,7 +14955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="129" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>44526</v>
       </c>
@@ -15065,7 +15023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="130" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>44526</v>
       </c>
@@ -15133,7 +15091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="131" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>44526</v>
       </c>
@@ -15201,7 +15159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="132" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>44526</v>
       </c>
@@ -15269,7 +15227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="133" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>44526</v>
       </c>
@@ -15338,7 +15296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="134" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>44526</v>
       </c>
@@ -15407,7 +15365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="135" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>44526</v>
       </c>
@@ -15475,7 +15433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="136" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>44526</v>
       </c>
@@ -15543,7 +15501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="137" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>44526</v>
       </c>
@@ -15611,7 +15569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="138" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>44526</v>
       </c>
@@ -15679,7 +15637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="139" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>44526</v>
       </c>
@@ -15747,7 +15705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="140" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>44526</v>
       </c>
@@ -15815,7 +15773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="141" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>44526</v>
       </c>
@@ -15883,7 +15841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="142" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>44526</v>
       </c>
@@ -15951,7 +15909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="143" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>44526</v>
       </c>
@@ -16020,7 +15978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="144" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>44526</v>
       </c>
@@ -16088,7 +16046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="145" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>44526</v>
       </c>
@@ -16157,7 +16115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="146" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>44526</v>
       </c>
@@ -16225,7 +16183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="147" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>44526</v>
       </c>
@@ -16293,7 +16251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="148" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>44526</v>
       </c>
@@ -16361,7 +16319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="149" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>44526</v>
       </c>
@@ -16429,7 +16387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="150" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>44526</v>
       </c>
@@ -16497,7 +16455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="151" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>44526</v>
       </c>
@@ -16565,7 +16523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="152" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>44526</v>
       </c>
@@ -16633,7 +16591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="153" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>44526</v>
       </c>
@@ -16702,7 +16660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="154" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>44526</v>
       </c>
@@ -16771,7 +16729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="155" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>44526</v>
       </c>
@@ -16839,7 +16797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="156" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>44526</v>
       </c>
@@ -16907,7 +16865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="157" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>44526</v>
       </c>
@@ -16975,7 +16933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="158" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>44526</v>
       </c>
@@ -17043,7 +17001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="159" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>44526</v>
       </c>
@@ -17111,7 +17069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="160" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>44526</v>
       </c>
@@ -17180,7 +17138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="161" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>44526</v>
       </c>
@@ -17249,7 +17207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="162" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>44526</v>
       </c>
@@ -17318,7 +17276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="163" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>44526</v>
       </c>
@@ -17387,7 +17345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="164" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>44526</v>
       </c>
@@ -17456,7 +17414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="165" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>44526</v>
       </c>
@@ -17524,7 +17482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="166" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>44526</v>
       </c>
@@ -17592,7 +17550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="167" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>44526</v>
       </c>
@@ -17660,7 +17618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="168" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>44526</v>
       </c>
@@ -17726,7 +17684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="169" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>44526</v>
       </c>
@@ -17794,7 +17752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="170" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>44526</v>
       </c>
@@ -17863,7 +17821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="171" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>44526</v>
       </c>
@@ -17932,7 +17890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="172" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>44526</v>
       </c>
@@ -18001,7 +17959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="173" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>44526</v>
       </c>
@@ -18070,7 +18028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="174" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>44526</v>
       </c>
@@ -18139,7 +18097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="175" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>44526</v>
       </c>
@@ -18208,7 +18166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="176" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>44526</v>
       </c>
@@ -18277,7 +18235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="177" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>44526</v>
       </c>
@@ -18346,7 +18304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="178" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>44526</v>
       </c>
@@ -18415,7 +18373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="179" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>44526</v>
       </c>
@@ -18484,7 +18442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="180" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>44526</v>
       </c>
@@ -18553,7 +18511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="181" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>44526</v>
       </c>
@@ -18622,7 +18580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="182" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>44526</v>
       </c>
@@ -18691,7 +18649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="183" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>44526</v>
       </c>
@@ -18760,7 +18718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="184" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>44526</v>
       </c>
@@ -18829,7 +18787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="185" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>44526</v>
       </c>
@@ -18898,7 +18856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="186" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>44526</v>
       </c>
@@ -18967,7 +18925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="187" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>44526</v>
       </c>
@@ -19036,7 +18994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="188" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>44526</v>
       </c>
@@ -19105,7 +19063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="189" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>44526</v>
       </c>
@@ -19174,7 +19132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="190" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>44526</v>
       </c>
@@ -19243,7 +19201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="191" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>44526</v>
       </c>
@@ -19312,7 +19270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="192" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>44526</v>
       </c>
@@ -19381,7 +19339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="193" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>44526</v>
       </c>
@@ -19450,7 +19408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="194" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>44526</v>
       </c>
@@ -19519,7 +19477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="195" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>44526</v>
       </c>
@@ -19588,7 +19546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="196" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>44526</v>
       </c>
@@ -19657,7 +19615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="197" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>44526</v>
       </c>
@@ -19726,7 +19684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="198" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>44526</v>
       </c>
@@ -19795,7 +19753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="199" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>44526</v>
       </c>
@@ -19864,7 +19822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="200" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>44526</v>
       </c>
@@ -19933,7 +19891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="201" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>44526</v>
       </c>
@@ -20002,7 +19960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="202" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>44526</v>
       </c>
@@ -20071,7 +20029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="203" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>44526</v>
       </c>
@@ -20140,7 +20098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="204" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>44526</v>
       </c>
@@ -20209,7 +20167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="205" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>44526</v>
       </c>
@@ -20278,7 +20236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="206" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>44526</v>
       </c>
@@ -20347,7 +20305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="207" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>44526</v>
       </c>
@@ -20416,7 +20374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="208" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>44526</v>
       </c>
@@ -20485,7 +20443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="209" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>44526</v>
       </c>
@@ -20554,7 +20512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="210" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>44526</v>
       </c>
@@ -20623,7 +20581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="211" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>44526</v>
       </c>
@@ -20692,7 +20650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="212" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>44526</v>
       </c>
@@ -20761,7 +20719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="213" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>44526</v>
       </c>
@@ -20830,7 +20788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="214" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>44526</v>
       </c>
@@ -20899,7 +20857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="215" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>44526</v>
       </c>
@@ -20968,7 +20926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="216" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>44526</v>
       </c>
@@ -21037,7 +20995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="217" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>44526</v>
       </c>
@@ -21106,7 +21064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="218" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>44526</v>
       </c>
@@ -21175,7 +21133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="219" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>44526</v>
       </c>
@@ -21244,7 +21202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="220" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>44526</v>
       </c>
@@ -21313,7 +21271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="221" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>44526</v>
       </c>
@@ -21382,7 +21340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="222" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>44526</v>
       </c>
@@ -21451,7 +21409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="223" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>44526</v>
       </c>
@@ -21520,7 +21478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="224" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>44526</v>
       </c>
@@ -21587,7 +21545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="225" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>44526</v>
       </c>
@@ -21656,7 +21614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="226" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>44526</v>
       </c>
@@ -21725,7 +21683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="227" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>44526</v>
       </c>
@@ -21794,7 +21752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="228" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>44526</v>
       </c>
@@ -21863,7 +21821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="229" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>44526</v>
       </c>
@@ -21932,7 +21890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="230" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>44526</v>
       </c>
@@ -21999,7 +21957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="231" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>44526</v>
       </c>
@@ -22066,7 +22024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="232" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>44526</v>
       </c>
@@ -22135,7 +22093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="233" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>44526</v>
       </c>
@@ -22204,7 +22162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="234" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>44526</v>
       </c>
@@ -22273,7 +22231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="235" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>44526</v>
       </c>
@@ -22342,7 +22300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="236" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>44526</v>
       </c>
@@ -22411,7 +22369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="237" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>44526</v>
       </c>
@@ -22480,7 +22438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="238" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>44526</v>
       </c>
@@ -22549,7 +22507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="239" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>44526</v>
       </c>
@@ -22618,7 +22576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="240" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>44526</v>
       </c>
@@ -22687,7 +22645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="241" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>44526</v>
       </c>
@@ -22756,7 +22714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="242" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>44526</v>
       </c>
@@ -22825,7 +22783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="243" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>44526</v>
       </c>
@@ -22894,7 +22852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="244" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>44526</v>
       </c>
@@ -22963,7 +22921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="245" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>44526</v>
       </c>
@@ -23032,7 +22990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="246" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>44526</v>
       </c>
@@ -23099,7 +23057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="247" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>44526</v>
       </c>
@@ -23168,7 +23126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="248" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>44526</v>
       </c>
@@ -23237,7 +23195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="249" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>44526</v>
       </c>
@@ -23306,7 +23264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="250" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>44526</v>
       </c>
@@ -23375,7 +23333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="251" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>44526</v>
       </c>
@@ -23444,7 +23402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="252" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>44526</v>
       </c>
@@ -23513,7 +23471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="253" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>44526</v>
       </c>
@@ -23582,7 +23540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="254" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>44526</v>
       </c>
@@ -23651,7 +23609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="255" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>44526</v>
       </c>
@@ -23720,7 +23678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="256" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>44526</v>
       </c>
@@ -23789,7 +23747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="257" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>44526</v>
       </c>
@@ -23858,7 +23816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="258" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>44526</v>
       </c>
@@ -23927,7 +23885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="259" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>44526</v>
       </c>
@@ -23996,7 +23954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="260" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>44526</v>
       </c>
@@ -24065,7 +24023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="261" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>44526</v>
       </c>
@@ -24134,7 +24092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="262" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>44526</v>
       </c>
@@ -24203,7 +24161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="263" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>44526</v>
       </c>
@@ -24272,7 +24230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="264" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>44526</v>
       </c>
@@ -24341,7 +24299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="265" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>44526</v>
       </c>
@@ -24410,7 +24368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="266" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>44526</v>
       </c>
@@ -24479,7 +24437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="267" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>44526</v>
       </c>
@@ -24548,7 +24506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="268" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>44526</v>
       </c>
@@ -24617,7 +24575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="269" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>44526</v>
       </c>
@@ -24686,7 +24644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="270" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>44526</v>
       </c>
@@ -24755,7 +24713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="271" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>44526</v>
       </c>
@@ -24824,7 +24782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="272" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>44526</v>
       </c>
@@ -24893,7 +24851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="273" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>44526</v>
       </c>
@@ -24962,7 +24920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="274" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>44526</v>
       </c>
@@ -25028,7 +24986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="275" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>44526</v>
       </c>
@@ -25097,7 +25055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="276" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>44526</v>
       </c>
@@ -25166,7 +25124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="277" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>44526</v>
       </c>
@@ -25235,7 +25193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="278" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>44526</v>
       </c>
@@ -25304,7 +25262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="279" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>44526</v>
       </c>
@@ -25373,7 +25331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="280" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>44526</v>
       </c>
@@ -25442,7 +25400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="281" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>44526</v>
       </c>
@@ -25511,7 +25469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="282" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>44526</v>
       </c>
@@ -25580,7 +25538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="283" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>44526</v>
       </c>
@@ -25649,7 +25607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="284" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>44526</v>
       </c>
@@ -25718,7 +25676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="285" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>44526</v>
       </c>
@@ -25787,7 +25745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="286" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>44526</v>
       </c>
@@ -25856,7 +25814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="287" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>44526</v>
       </c>
@@ -25925,7 +25883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="288" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>44526</v>
       </c>
@@ -25994,7 +25952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="289" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>44526</v>
       </c>
@@ -26063,7 +26021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="290" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>44526</v>
       </c>
@@ -26132,7 +26090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="291" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>44526</v>
       </c>
@@ -26201,7 +26159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="292" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>44526</v>
       </c>
@@ -26270,7 +26228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="293" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>44526</v>
       </c>
@@ -26339,7 +26297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="294" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>44526</v>
       </c>
@@ -26408,7 +26366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="295" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>44526</v>
       </c>
@@ -26477,7 +26435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="296" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>44526</v>
       </c>
@@ -26546,7 +26504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="297" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>44526</v>
       </c>
@@ -26615,7 +26573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="298" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>44526</v>
       </c>
@@ -26684,7 +26642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="299" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>44526</v>
       </c>
@@ -26753,7 +26711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="300" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>44526</v>
       </c>
@@ -26822,7 +26780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="301" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>44526</v>
       </c>
@@ -26891,7 +26849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="302" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>44526</v>
       </c>
@@ -26960,7 +26918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="303" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>44526</v>
       </c>
@@ -27029,7 +26987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="304" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>44526</v>
       </c>
@@ -27098,7 +27056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="305" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>44526</v>
       </c>
@@ -27167,7 +27125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="306" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>44526</v>
       </c>
@@ -27236,7 +27194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="307" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>44526</v>
       </c>
@@ -27305,7 +27263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="308" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>44526</v>
       </c>
@@ -27374,7 +27332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="309" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>44526</v>
       </c>
@@ -27443,7 +27401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="310" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>44526</v>
       </c>
@@ -27510,7 +27468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="311" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>44526</v>
       </c>
@@ -27579,7 +27537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="312" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>44526</v>
       </c>
@@ -27648,7 +27606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="313" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>44526</v>
       </c>
@@ -27717,7 +27675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="314" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>44526</v>
       </c>
@@ -27786,7 +27744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="315" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="315" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>44526</v>
       </c>
@@ -27855,7 +27813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="316" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>44526</v>
       </c>
@@ -27924,7 +27882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="317" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>44526</v>
       </c>
@@ -27993,7 +27951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="318" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>44526</v>
       </c>
@@ -28062,7 +28020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="319" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>44526</v>
       </c>
@@ -28130,7 +28088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="320" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>44526</v>
       </c>
@@ -28199,7 +28157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="321" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>44526</v>
       </c>
@@ -28268,7 +28226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="322" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>44526</v>
       </c>
@@ -28337,7 +28295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="323" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>44526</v>
       </c>
@@ -28406,7 +28364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="324" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>44526</v>
       </c>
@@ -28475,7 +28433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="325" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>44526</v>
       </c>
@@ -28544,7 +28502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="326" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>44526</v>
       </c>
@@ -28612,7 +28570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="327" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>44526</v>
       </c>
@@ -28681,7 +28639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="328" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>44526</v>
       </c>
@@ -28750,7 +28708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="329" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>44526</v>
       </c>
@@ -28819,7 +28777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="330" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>44526</v>
       </c>
@@ -28888,7 +28846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="331" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>44526</v>
       </c>
@@ -28957,7 +28915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="332" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>44526</v>
       </c>
@@ -29026,7 +28984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="333" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="333" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>44526</v>
       </c>
@@ -29095,7 +29053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="334" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>44526</v>
       </c>
@@ -29164,7 +29122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="335" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>44526</v>
       </c>
@@ -29233,7 +29191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="336" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>44526</v>
       </c>
@@ -29302,7 +29260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="337" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>44526</v>
       </c>
@@ -29371,7 +29329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="338" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="10">
         <v>44526</v>
       </c>
@@ -29439,7 +29397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="339" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>44526</v>
       </c>
@@ -29508,7 +29466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="340" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>44526</v>
       </c>
@@ -29577,7 +29535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="341" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>44526</v>
       </c>
@@ -29646,7 +29604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="342" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>44526</v>
       </c>
@@ -29715,7 +29673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="343" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>44526</v>
       </c>
@@ -29784,7 +29742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="344" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>44526</v>
       </c>
@@ -29852,7 +29810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="345" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>44526</v>
       </c>
@@ -29921,7 +29879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="346" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="10">
         <v>44526</v>
       </c>
@@ -29989,7 +29947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="347" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>44526</v>
       </c>
@@ -30058,7 +30016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="348" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>44526</v>
       </c>
@@ -30127,7 +30085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="349" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>44526</v>
       </c>
@@ -30196,7 +30154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="350" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>44526</v>
       </c>
@@ -30265,7 +30223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="351" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>44526</v>
       </c>
@@ -30334,7 +30292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="352" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>44526</v>
       </c>
@@ -30403,7 +30361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="353" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>44526</v>
       </c>
@@ -30472,7 +30430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="354" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>44526</v>
       </c>
@@ -30541,7 +30499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="355" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>44526</v>
       </c>
@@ -30610,7 +30568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="356" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>44526</v>
       </c>
@@ -30675,7 +30633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="357" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>44526</v>
       </c>
@@ -30744,7 +30702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="358" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>44526</v>
       </c>
@@ -30813,7 +30771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="359" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>44526</v>
       </c>
@@ -30880,7 +30838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="360" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="10">
         <v>44526</v>
       </c>
@@ -30948,7 +30906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="361" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="10">
         <v>44526</v>
       </c>
@@ -31016,7 +30974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="362" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="10">
         <v>44526</v>
       </c>
@@ -31084,7 +31042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="363" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="10">
         <v>44526</v>
       </c>
@@ -31152,7 +31110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="364" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="10">
         <v>44526</v>
       </c>
@@ -31220,7 +31178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="365" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="10">
         <v>44526</v>
       </c>
@@ -31288,7 +31246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="366" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="10">
         <v>44526</v>
       </c>
@@ -31356,7 +31314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="367" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="10">
         <v>44526</v>
       </c>
@@ -31424,7 +31382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="368" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="10">
         <v>44526</v>
       </c>
@@ -31492,7 +31450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="369" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="10">
         <v>44526</v>
       </c>
@@ -31560,7 +31518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="370" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="10">
         <v>44526</v>
       </c>
@@ -31628,7 +31586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="371" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="10">
         <v>44526</v>
       </c>
@@ -31696,7 +31654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="372" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="10">
         <v>44526</v>
       </c>
@@ -31764,7 +31722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="373" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="10">
         <v>44526</v>
       </c>
@@ -31832,7 +31790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="374" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>44526</v>
       </c>
@@ -31901,7 +31859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="375" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="10">
         <v>44526</v>
       </c>
@@ -31969,7 +31927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="376" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="10">
         <v>44526</v>
       </c>
@@ -32037,7 +31995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="377" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="10">
         <v>44526</v>
       </c>
@@ -32105,7 +32063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="378" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="378" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="10">
         <v>44526</v>
       </c>
@@ -32173,7 +32131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="379" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="10">
         <v>44526</v>
       </c>
@@ -32241,7 +32199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="380" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="10">
         <v>44526</v>
       </c>
@@ -32309,7 +32267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="381" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="10">
         <v>44526</v>
       </c>
@@ -32377,7 +32335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="382" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="10">
         <v>44526</v>
       </c>
@@ -32445,7 +32403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="383" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="10">
         <v>44526</v>
       </c>
@@ -32513,7 +32471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="384" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="10">
         <v>44526</v>
       </c>
@@ -32581,7 +32539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="385" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="10">
         <v>44526</v>
       </c>
@@ -32649,7 +32607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="386" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="10">
         <v>44526</v>
       </c>
@@ -32717,7 +32675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="387" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="10">
         <v>44526</v>
       </c>
@@ -32785,7 +32743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="388" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="10">
         <v>44526</v>
       </c>
@@ -32853,7 +32811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="389" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="10">
         <v>44526</v>
       </c>
@@ -32921,7 +32879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="390" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="10">
         <v>44526</v>
       </c>
@@ -32989,7 +32947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="391" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="10">
         <v>44526</v>
       </c>
@@ -33057,7 +33015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="392" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="10">
         <v>44526</v>
       </c>
@@ -33125,7 +33083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="393" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="10">
         <v>44526</v>
       </c>
@@ -33193,7 +33151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="394" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="10">
         <v>44526</v>
       </c>
@@ -33261,7 +33219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="395" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="10">
         <v>44526</v>
       </c>
@@ -33329,7 +33287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="396" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="10">
         <v>44526</v>
       </c>
@@ -33397,7 +33355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="397" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="10">
         <v>44526</v>
       </c>
@@ -33465,7 +33423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="398" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="10">
         <v>44526</v>
       </c>
@@ -33533,7 +33491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="399" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="399" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="10">
         <v>44526</v>
       </c>
@@ -33601,7 +33559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="400" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="400" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10">
         <v>44526</v>
       </c>
@@ -33669,7 +33627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="401" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="10">
         <v>44526</v>
       </c>
@@ -33737,7 +33695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="402" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="10">
         <v>44526</v>
       </c>
@@ -33805,7 +33763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="403" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="10">
         <v>44526</v>
       </c>
@@ -33873,7 +33831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="404" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="10">
         <v>44526</v>
       </c>
@@ -33941,7 +33899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="405" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="405" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="10">
         <v>44526</v>
       </c>
@@ -34009,7 +33967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="406" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="10">
         <v>44526</v>
       </c>
@@ -34077,7 +34035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="407" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>44526</v>
       </c>
@@ -34146,7 +34104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="408" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>44526</v>
       </c>
@@ -34215,7 +34173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="409" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>44526</v>
       </c>
@@ -34284,7 +34242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="410" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>44526</v>
       </c>
@@ -34353,7 +34311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="411" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>44526</v>
       </c>
@@ -34422,7 +34380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="412" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="412" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>44526</v>
       </c>
@@ -34491,7 +34449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="413" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>44526</v>
       </c>
@@ -34560,7 +34518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="414" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="10">
         <v>44526</v>
       </c>
@@ -34628,7 +34586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="415" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>44526</v>
       </c>
@@ -34697,7 +34655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="416" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="10">
         <v>44526</v>
       </c>
@@ -34765,7 +34723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="417" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="417" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="10">
         <v>44526</v>
       </c>
@@ -34833,7 +34791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="418" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="10">
         <v>44526</v>
       </c>
@@ -34901,7 +34859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="419" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="10">
         <v>44526</v>
       </c>
@@ -34969,7 +34927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="420" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="10">
         <v>44526</v>
       </c>
@@ -35037,7 +34995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="421" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="10">
         <v>44526</v>
       </c>
@@ -35105,7 +35063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="422" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="10">
         <v>44526</v>
       </c>
@@ -35173,7 +35131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="423" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="10">
         <v>44526</v>
       </c>
@@ -35241,7 +35199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="424" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="10">
         <v>44526</v>
       </c>
@@ -35309,7 +35267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="425" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="425" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>44526</v>
       </c>
@@ -35378,7 +35336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="426" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="10">
         <v>44526</v>
       </c>
@@ -35446,7 +35404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="427" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="427" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="10">
         <v>44526</v>
       </c>
@@ -35514,7 +35472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="428" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="10">
         <v>44526</v>
       </c>
@@ -35582,7 +35540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="429" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="429" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="10">
         <v>44526</v>
       </c>
@@ -35650,7 +35608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="430" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="10">
         <v>44526</v>
       </c>
@@ -35718,7 +35676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="431" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="10">
         <v>44526</v>
       </c>
@@ -35786,7 +35744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="432" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="432" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="10">
         <v>44526</v>
       </c>
@@ -35854,7 +35812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="433" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>44526</v>
       </c>
@@ -35923,7 +35881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="434" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="10">
         <v>44526</v>
       </c>
@@ -35991,7 +35949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="435" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>44526</v>
       </c>
@@ -36060,7 +36018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="436" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="10">
         <v>44526</v>
       </c>
@@ -36128,7 +36086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="437" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>44526</v>
       </c>
@@ -36195,7 +36153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="438" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="438" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>44526</v>
       </c>
@@ -36264,7 +36222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="439" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>44526</v>
       </c>
@@ -36333,7 +36291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="440" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="10">
         <v>44526</v>
       </c>
@@ -36401,7 +36359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="441" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="10">
         <v>44526</v>
       </c>
@@ -36469,7 +36427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="442" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="442" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="10">
         <v>44526</v>
       </c>
@@ -36537,7 +36495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="443" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="10">
         <v>44526</v>
       </c>
@@ -36605,7 +36563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="444" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="10">
         <v>44526</v>
       </c>
@@ -36673,7 +36631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="445" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="10">
         <v>44526</v>
       </c>
@@ -36741,7 +36699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="446" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>44526</v>
       </c>
@@ -36810,7 +36768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="447" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="447" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="10">
         <v>44526</v>
       </c>
@@ -36878,7 +36836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="448" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="10">
         <v>44526</v>
       </c>
@@ -36946,7 +36904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="449" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="10">
         <v>44526</v>
       </c>
@@ -37014,7 +36972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="450" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="450" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="10">
         <v>44526</v>
       </c>
@@ -37082,7 +37040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="451" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="10">
         <v>44526</v>
       </c>
@@ -37150,7 +37108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="452" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="10">
         <v>44526</v>
       </c>
@@ -37218,7 +37176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="453" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="10">
         <v>44526</v>
       </c>
@@ -37286,7 +37244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="454" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="10">
         <v>44526</v>
       </c>
@@ -37352,7 +37310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="455" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="455" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>44526</v>
       </c>
@@ -37421,7 +37379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="456" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="10">
         <v>44526</v>
       </c>
@@ -37489,7 +37447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="457" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="10">
         <v>44526</v>
       </c>
@@ -37557,7 +37515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="458" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="10">
         <v>44526</v>
       </c>
@@ -37625,7 +37583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="459" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="10">
         <v>44526</v>
       </c>
@@ -37693,7 +37651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="460" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>44526</v>
       </c>
@@ -37762,7 +37720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="461" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="10">
         <v>44526</v>
       </c>
@@ -37830,7 +37788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="462" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="10">
         <v>44526</v>
       </c>
@@ -37898,7 +37856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="463" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>44526</v>
       </c>
@@ -37967,7 +37925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="464" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="10">
         <v>44526</v>
       </c>
@@ -38035,7 +37993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="465" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="10">
         <v>44526</v>
       </c>
@@ -38103,7 +38061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="466" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="10">
         <v>44526</v>
       </c>
@@ -38171,7 +38129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="467" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="10">
         <v>44526</v>
       </c>
@@ -38239,7 +38197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="468" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="10">
         <v>44526</v>
       </c>
@@ -38307,7 +38265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="469" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="10">
         <v>44526</v>
       </c>
@@ -38375,7 +38333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="470" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="470" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="10">
         <v>44526</v>
       </c>
@@ -38443,7 +38401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="471" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="10">
         <v>44526</v>
       </c>
@@ -38511,7 +38469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="472" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="10">
         <v>44526</v>
       </c>
@@ -38579,7 +38537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="473" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="10">
         <v>44526</v>
       </c>
@@ -38647,7 +38605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="474" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="10">
         <v>44526</v>
       </c>
@@ -38715,7 +38673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="475" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="10">
         <v>44526</v>
       </c>
@@ -38783,7 +38741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="476" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="476" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="10">
         <v>44526</v>
       </c>
@@ -38851,7 +38809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="477" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="10">
         <v>44526</v>
       </c>
@@ -38919,7 +38877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="478" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="10">
         <v>44526</v>
       </c>
@@ -38987,7 +38945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="479" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="10">
         <v>44526</v>
       </c>
@@ -39055,7 +39013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="480" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>44526</v>
       </c>
@@ -39123,7 +39081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="481" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>44526</v>
       </c>
@@ -39191,7 +39149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="482" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="10">
         <v>44526</v>
       </c>
@@ -39259,7 +39217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="483" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="10">
         <v>44526</v>
       </c>
@@ -39327,7 +39285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="484" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="484" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="10">
         <v>44526</v>
       </c>
@@ -39395,7 +39353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="485" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="10">
         <v>44526</v>
       </c>
@@ -39463,7 +39421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="486" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="10">
         <v>44526</v>
       </c>
@@ -39531,7 +39489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="487" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="10">
         <v>44526</v>
       </c>
@@ -39599,7 +39557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="488" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="10">
         <v>44526</v>
       </c>
@@ -39667,7 +39625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="489" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="10">
         <v>44526</v>
       </c>
@@ -39735,7 +39693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="490" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="490" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="10">
         <v>44526</v>
       </c>
@@ -39803,7 +39761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="491" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="10">
         <v>44526</v>
       </c>
@@ -39871,7 +39829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="492" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="492" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="10">
         <v>44526</v>
       </c>
@@ -39939,7 +39897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="493" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="493" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="10">
         <v>44526</v>
       </c>
@@ -40007,7 +39965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="494" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="494" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="10">
         <v>44526</v>
       </c>
@@ -40075,7 +40033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="495" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="495" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>44526</v>
       </c>
@@ -40143,7 +40101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="496" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="496" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="10">
         <v>44526</v>
       </c>
@@ -40211,7 +40169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="497" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="497" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="10">
         <v>44526</v>
       </c>
@@ -40279,7 +40237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="498" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="498" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="10">
         <v>44526</v>
       </c>
@@ -40347,7 +40305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="499" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="6">
         <v>44526</v>
       </c>
@@ -40415,7 +40373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="500" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>44526</v>
       </c>
@@ -40483,7 +40441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="501" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="10">
         <v>44526</v>
       </c>
@@ -40551,7 +40509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="502" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="10">
         <v>44526</v>
       </c>
@@ -40619,7 +40577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="503" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="503" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="10">
         <v>44526</v>
       </c>
@@ -40687,7 +40645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="504" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="10">
         <v>44526</v>
       </c>
@@ -40755,7 +40713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="505" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="10">
         <v>44526</v>
       </c>
@@ -40823,7 +40781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="506" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="506" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="10">
         <v>44526</v>
       </c>
@@ -40891,7 +40849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="507" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="507" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="10">
         <v>44526</v>
       </c>
@@ -40959,7 +40917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="508" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="10">
         <v>44526</v>
       </c>
@@ -41027,7 +40985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="509" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="509" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="10">
         <v>44526</v>
       </c>
@@ -41095,7 +41053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="510" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>44526</v>
       </c>
@@ -41163,7 +41121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="511" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="511" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="10">
         <v>44526</v>
       </c>
@@ -41231,7 +41189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="512" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="10">
         <v>44526</v>
       </c>
@@ -41299,7 +41257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="513" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="513" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="10">
         <v>44526</v>
       </c>
@@ -41367,7 +41325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="514" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="10">
         <v>44526</v>
       </c>
@@ -41435,7 +41393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="515" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="10">
         <v>44526</v>
       </c>
@@ -41503,7 +41461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="516" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="516" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="10">
         <v>44526</v>
       </c>
@@ -41571,7 +41529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="517" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="10">
         <v>44526</v>
       </c>
@@ -41639,7 +41597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="518" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="518" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="10">
         <v>44526</v>
       </c>
@@ -41707,7 +41665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="519" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="10">
         <v>44526</v>
       </c>
@@ -41775,7 +41733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="520" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="520" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="10">
         <v>44526</v>
       </c>
@@ -41843,7 +41801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="521" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="521" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="10">
         <v>44526</v>
       </c>
@@ -41911,7 +41869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="522" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="522" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="10">
         <v>44526</v>
       </c>
@@ -41979,7 +41937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="523" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="523" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>44526</v>
       </c>
@@ -42045,7 +42003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="524" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="524" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>44526</v>
       </c>
@@ -42111,7 +42069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="525" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="10">
         <v>44526</v>
       </c>
@@ -42179,7 +42137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="526" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="526" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="10">
         <v>44526</v>
       </c>
@@ -42247,7 +42205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="527" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="527" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="10">
         <v>44526</v>
       </c>
@@ -42315,7 +42273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="528" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="10">
         <v>44526</v>
       </c>
@@ -42383,7 +42341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="529" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="10">
         <v>44526</v>
       </c>
@@ -42451,7 +42409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="530" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>44526</v>
       </c>
@@ -42519,7 +42477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="531" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>44526</v>
       </c>
@@ -42587,7 +42545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="532" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="532" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="10">
         <v>44526</v>
       </c>
@@ -42655,7 +42613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="533" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="10">
         <v>44526</v>
       </c>
@@ -42723,7 +42681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="534" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="10">
         <v>44526</v>
       </c>
@@ -42791,7 +42749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="535" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="10">
         <v>44526</v>
       </c>
@@ -42859,7 +42817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="536" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="536" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="10">
         <v>44526</v>
       </c>
@@ -42927,7 +42885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="537" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="10">
         <v>44526</v>
       </c>
@@ -42995,7 +42953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="538" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="10">
         <v>44526</v>
       </c>
@@ -43063,7 +43021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="539" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="10">
         <v>44526</v>
       </c>
@@ -43129,7 +43087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="540" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="540" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="10">
         <v>44526</v>
       </c>
@@ -43197,7 +43155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="541" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="10">
         <v>44526</v>
       </c>
@@ -43265,7 +43223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="542" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="10">
         <v>44526</v>
       </c>
@@ -43333,7 +43291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="543" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="10">
         <v>44526</v>
       </c>
@@ -43401,7 +43359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="544" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="544" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="10">
         <v>44526</v>
       </c>
@@ -43469,7 +43427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="545" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="545" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="10">
         <v>44526</v>
       </c>
@@ -43537,7 +43495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="546" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="546" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="10">
         <v>44526</v>
       </c>
@@ -43605,7 +43563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="547" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="547" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="10">
         <v>44526</v>
       </c>
@@ -43673,7 +43631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="548" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="548" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="10">
         <v>44526</v>
       </c>
@@ -43741,7 +43699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="549" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="549" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="10">
         <v>44526</v>
       </c>
@@ -43809,7 +43767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="550" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="10">
         <v>44526</v>
       </c>
@@ -43877,7 +43835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="551" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="10">
         <v>44526</v>
       </c>
@@ -43945,7 +43903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="552" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="552" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="10">
         <v>44526</v>
       </c>
@@ -44013,7 +43971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="553" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="10">
         <v>44526</v>
       </c>
@@ -44081,7 +44039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="554" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="10">
         <v>44526</v>
       </c>
@@ -44149,7 +44107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="555" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="555" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>44526</v>
       </c>
@@ -44217,7 +44175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="556" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>44526</v>
       </c>
@@ -44283,7 +44241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="557" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="10">
         <v>44526</v>
       </c>
@@ -44351,7 +44309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="558" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="10">
         <v>44526</v>
       </c>
@@ -44419,7 +44377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="559" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="10">
         <v>44526</v>
       </c>
@@ -44487,7 +44445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="560" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="10">
         <v>44526</v>
       </c>
@@ -44555,7 +44513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="561" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="10">
         <v>44526</v>
       </c>
@@ -44623,7 +44581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="562" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>44526</v>
       </c>
@@ -44691,7 +44649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="563" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="563" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>44526</v>
       </c>
@@ -44759,7 +44717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="564" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="10">
         <v>44526</v>
       </c>
@@ -44827,7 +44785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="565" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="565" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="10">
         <v>44526</v>
       </c>
@@ -44895,7 +44853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="566" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="566" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="10">
         <v>44526</v>
       </c>
@@ -44963,7 +44921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="567" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="567" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="10">
         <v>44526</v>
       </c>
@@ -45031,7 +44989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="568" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="568" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="10">
         <v>44526</v>
       </c>
@@ -45099,7 +45057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="569" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="10">
         <v>44526</v>
       </c>
@@ -45167,7 +45125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="570" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="570" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="10">
         <v>44526</v>
       </c>
@@ -45235,7 +45193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="571" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="10">
         <v>44526</v>
       </c>
@@ -45303,7 +45261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:24" customHeight="1" ht="25.5" s="5" customFormat="1">
+    <row r="572" spans="1:23" s="5" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="10">
         <v>44526</v>
       </c>
@@ -45371,7 +45329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="573" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="573" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="10">
         <v>44526</v>
       </c>
@@ -45437,7 +45395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="574" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="574" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="10">
         <v>44526</v>
       </c>
@@ -45505,7 +45463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="575" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>44526</v>
       </c>
@@ -45573,7 +45531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="576" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="576" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>44526</v>
       </c>
@@ -45641,7 +45599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="577" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>44526</v>
       </c>
@@ -45709,7 +45667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="578" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="10">
         <v>44526</v>
       </c>
@@ -45777,7 +45735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="579" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="579" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="10">
         <v>44526</v>
       </c>
@@ -45845,7 +45803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="580" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="10">
         <v>44526</v>
       </c>
@@ -45913,7 +45871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="581" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="581" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="10">
         <v>44526</v>
       </c>
@@ -45981,7 +45939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="582" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="10">
         <v>44526</v>
       </c>
@@ -46049,7 +46007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="583" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="583" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>44526</v>
       </c>
@@ -46117,7 +46075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="584" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="584" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="10">
         <v>44526</v>
       </c>
@@ -46185,7 +46143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="585" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="10">
         <v>44526</v>
       </c>
@@ -46251,7 +46209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="586" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="10">
         <v>44526</v>
       </c>
@@ -46319,7 +46277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="587" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="10">
         <v>44526</v>
       </c>
@@ -46387,7 +46345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="588" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="588" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="10">
         <v>44526</v>
       </c>
@@ -46455,7 +46413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="589" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="10">
         <v>44526</v>
       </c>
@@ -46523,7 +46481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="590" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="10">
         <v>44526</v>
       </c>
@@ -46591,7 +46549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="591" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="591" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="10">
         <v>44526</v>
       </c>
@@ -46659,7 +46617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:24" customHeight="1" ht="12.75" s="5" customFormat="1">
+    <row r="592" spans="1:23" s="5" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="10">
         <v>44526</v>
       </c>
@@ -46727,7 +46685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="593" spans="1:24" customHeight="1" ht="13.5">
+    <row r="593" spans="1:23" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="13">
         <v>44526</v>
       </c>
@@ -46797,53 +46755,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:V1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:V593" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="Cuarto"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="W2:W592">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W592">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <rowBreaks count="23" manualBreakCount="23">
-    <brk id="25" man="1"/>
-    <brk id="53" man="1"/>
-    <brk id="73" man="1"/>
-    <brk id="91" man="1"/>
-    <brk id="117" man="1"/>
-    <brk id="144" man="1"/>
-    <brk id="170" man="1"/>
-    <brk id="191" man="1"/>
-    <brk id="210" man="1"/>
-    <brk id="229" man="1"/>
-    <brk id="246" man="1"/>
-    <brk id="264" man="1"/>
-    <brk id="288" man="1"/>
-    <brk id="312" man="1"/>
-    <brk id="337" man="1"/>
-    <brk id="359" man="1"/>
-    <brk id="391" man="1"/>
-    <brk id="425" man="1"/>
-    <brk id="446" man="1"/>
-    <brk id="470" man="1"/>
-    <brk id="504" man="1"/>
-    <brk id="535" man="1"/>
-    <brk id="554" man="1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="504" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>